--- a/src/test/java/resource/mysmoketestdata.xlsx
+++ b/src/test/java/resource/mysmoketestdata.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yns\Desktop\VJ1_DENEME\VJTestNG\src\test\java\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo i5\IdeaProjects\TestNg\src\test\java\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37ACA9CA-6FBA-46A6-8F87-B6C5E98E7868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="customer_info" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>username</t>
   </si>
@@ -29,18 +30,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>raj.khan@bluerentalcars.com</t>
-  </si>
-  <si>
-    <t>v7Hg_va^</t>
-  </si>
-  <si>
-    <t>pam.raymond@bluerentalcars.com</t>
-  </si>
-  <si>
-    <t>Nga^g6!</t>
-  </si>
-  <si>
     <t>Ruby.1*</t>
   </si>
   <si>
@@ -56,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -92,8 +81,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -308,22 +297,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -331,37 +320,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -369,7 +346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -379,28 +356,28 @@
       <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
     </row>
@@ -410,14 +387,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
